--- a/book1.xlsx
+++ b/book1.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="267">
   <si>
     <t>г. Бологое, Тверская обл., Бологовский р-н, ул. 1-Линейная, д. 1-а</t>
   </si>
@@ -814,6 +814,9 @@
   </si>
   <si>
     <t>Республика Башкортостан, п. Чишмы, ул. Железнодорожная, б/н</t>
+  </si>
+  <si>
+    <t>Заголовок</t>
   </si>
 </sst>
 </file>
@@ -1154,14 +1157,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:A285"/>
+  <dimension ref="A1:A285"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A285"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>266</v>
+      </c>
+    </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>

--- a/book1.xlsx
+++ b/book1.xlsx
@@ -18,93 +18,24 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="267">
   <si>
-    <t>г. Бологое, Тверская обл., Бологовский р-н, ул. 1-Линейная, д. 1-а</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Новгородская обл., г. Боровичи, Привокзальная пл., д. 1 </t>
-  </si>
-  <si>
-    <t>Псковская обл., г. Великие Луки, Привокзальная пл., д. 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ленинградская обл., г. Выборг, ул. Куйбышева, д. 21 </t>
-  </si>
-  <si>
-    <t>Мурманская обл., г. Мурманск, Портовый пр, д. 5</t>
-  </si>
-  <si>
-    <t>Новгородская обл., г. Великий Новгород, ул. Северная, д. 9 А</t>
-  </si>
-  <si>
-    <t>Республика Карелия, г. Петрозаводск, ул. Шотмана, 27</t>
-  </si>
-  <si>
-    <t>Псковская обл., г. Псков, ст. Псков-товарный, Вокзальная улица, 15Г</t>
-  </si>
-  <si>
-    <t>г. Санкт-Петербург, Невский р-н, Глухоозерское шоссе, д. 13</t>
-  </si>
-  <si>
-    <t>г. Санкт-Петербург, Калининский р-н, ул. Минеральная, д. 25</t>
-  </si>
-  <si>
     <t>г. Тверь, ул. Гончаровой, д. 40</t>
   </si>
   <si>
     <t>г. Торжок, ул. Товарный двор, д. 4</t>
   </si>
   <si>
-    <t xml:space="preserve">г. Санкт-Петербург, пос. Шушары, Московское шоссе, д. 16 </t>
-  </si>
-  <si>
     <t>236011, г. Калининград, ул. Солнечногорская, д. 59</t>
   </si>
   <si>
     <t>236039, г. Калининград, ул. Портовая, 27а</t>
   </si>
   <si>
-    <t>238152, Калининградская область, г. Черняховск, ул. Новочерняховск , д. 8</t>
-  </si>
-  <si>
-    <t>Московская обл., г.о. Дубна</t>
-  </si>
-  <si>
-    <t>Московская обл., Наро-Фоминский округ, дер. Бекасово</t>
-  </si>
-  <si>
-    <t>Московская обл., Дмитровский р-н, дер. Кузяево</t>
-  </si>
-  <si>
-    <t>Московская обл., Воскресенский р-н</t>
-  </si>
-  <si>
-    <t>Москва, ул. 6 радиальная, д. 15, стр. 4</t>
-  </si>
-  <si>
-    <t>Московская обл., г. Воскресенск, Новосоветский пер.</t>
-  </si>
-  <si>
-    <t>Московская обл., г. Коломна, 6 км Озерской ветки, ул. Астахова</t>
-  </si>
-  <si>
     <t>Московская обл., Каширское ш., д. 15Г</t>
   </si>
   <si>
-    <t>Московская обл., г. Егорьевск, ул. 50 лет ВЛКСМ</t>
-  </si>
-  <si>
-    <t>Московская обл., г. Кашира, ул. Ильича</t>
-  </si>
-  <si>
     <t>Москва, ул. Молодогвардейская, д. 65</t>
   </si>
   <si>
-    <t>г. Рязань, пос. Соколовка, Лесок</t>
-  </si>
-  <si>
-    <t>Московская обл., г. Люберцы, ул. Волковская</t>
-  </si>
-  <si>
     <t>Москва, ул. Дубининская, 63, стр.1</t>
   </si>
   <si>
@@ -114,102 +45,18 @@
     <t>Москва, ул. Красная Сосна, д. 2В</t>
   </si>
   <si>
-    <t>Московская обл., Истринский р-н</t>
-  </si>
-  <si>
-    <t>Московская обл., г. Ногинск, ул. Комсомольская, д. 68А</t>
-  </si>
-  <si>
-    <t>Московская обл., г. Орехово-Зуево, ул. Вокзальная</t>
-  </si>
-  <si>
-    <t>Московская обл., г. Подольск, ул. Вокзальная</t>
-  </si>
-  <si>
-    <t>Московская обл., г. Раменское, ул. Михалевича</t>
-  </si>
-  <si>
-    <t>г. Рязань, Товарный двор, ст. Рязань-1</t>
-  </si>
-  <si>
-    <t>Московская обл., г. Сергиев Посад, 1-я Рыбная ул., д. 1</t>
-  </si>
-  <si>
-    <t>Московская обл., Ступинский р-н</t>
-  </si>
-  <si>
-    <t>Московская обл., г. Ступино, ул. Привокзальная</t>
-  </si>
-  <si>
-    <t>Московская обл., г. Щелково, ул. Вокзальная</t>
-  </si>
-  <si>
     <t>г. Орел, ст. Лужки</t>
   </si>
   <si>
-    <t>г. Орел, ул. Старо-Привокзальная, грузовой двор</t>
-  </si>
-  <si>
     <t>г. Курск, ул. Экспедиционная, д. 3</t>
   </si>
   <si>
-    <t>Тульская обл., г. Новомосковск</t>
-  </si>
-  <si>
-    <t>г. Тула, Зареченский р-н, ул. Вяземская, д. 1</t>
-  </si>
-  <si>
-    <t>Тульская обл., г. Узловая</t>
-  </si>
-  <si>
-    <t>г. Брянск, Фокинский р-н, ст. Брянск-2-Льговский</t>
-  </si>
-  <si>
-    <t>Смоленская обл., Вяземский р-н, грузовой двор</t>
-  </si>
-  <si>
-    <t>Калужская обл., г. Калуга</t>
-  </si>
-  <si>
-    <t>Брянская обл., Клинцовский р-н</t>
-  </si>
-  <si>
-    <t>Калужская обл., Мещовский р-н</t>
-  </si>
-  <si>
-    <t>Брянская обл., г. Новозыбков</t>
-  </si>
-  <si>
-    <t>Брянская обл., Почепский р-н</t>
-  </si>
-  <si>
-    <t>Смоленская обл., Рославльский р-н</t>
-  </si>
-  <si>
     <t>г. Смоленск, ул. Новомосковская</t>
   </si>
   <si>
     <t>г. Агрыз, ул. Вокзальная, д. 13</t>
   </si>
   <si>
-    <t>Нижегородская обл., г. Арзамас, ул. Заклубная, 18</t>
-  </si>
-  <si>
-    <t>г. Казань, ул. Поперечно-Отарская, д. 100, грузовой двор станции Вахитово</t>
-  </si>
-  <si>
-    <t>Владимирская обл., г. Вязники, мкр-н Нововязники, ст. Вязники</t>
-  </si>
-  <si>
-    <t>Удмуртская республика, г. Глазов, ул. Барышникова</t>
-  </si>
-  <si>
-    <t>Владимировская обл., г. Гусь-Хрустальный, ул. Некрасова, д. 13-а</t>
-  </si>
-  <si>
-    <t>Нижегородская обл, г. Дзержинск, пос. Горбатовка, ст. Доскино, примыкание 426 км, пикет 2+6</t>
-  </si>
-  <si>
     <t>г. Ижевск, ул. Голублева, 101</t>
   </si>
   <si>
@@ -219,48 +66,12 @@
     <t>г. Канаш, ул. Канашская, д. 53</t>
   </si>
   <si>
-    <t>Кировская обл., г. Киров, ул. Московская, 104а</t>
-  </si>
-  <si>
     <t>г. Н.Новгород, ул. Актюбинская, 17</t>
   </si>
   <si>
-    <t>Кировская обл., г. Котельнич, ул. Деповская, 19</t>
-  </si>
-  <si>
-    <t>г. Красноуфимск, пер. Товарный, грузовой двор станции Красноуфимск, ул. Вокзальная, 18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Нижегородская обл., г. Кстово, ул. Лесная, 1а </t>
-  </si>
-  <si>
-    <t>г. Казань, ул. Боевая, грузовой двор станции Лагерная</t>
-  </si>
-  <si>
-    <t>Кировская обл., г. Киров, п. Лянгасово, ст. Лянгасово</t>
-  </si>
-  <si>
-    <t>Владимирская обл., г. Муром, ул. Эксплуатационная, 14а</t>
-  </si>
-  <si>
     <t>г. Сарапул, ул. Вокзальная, 11</t>
   </si>
   <si>
-    <t>Нижегородская обл., Семеновский р-он, г. Семенов, ст. Семенов, направление Горький-Киров, с правой стороны км 509, пикет 5-7</t>
-  </si>
-  <si>
-    <t>Нижегородская обл., г. Урень, ул. Механизаторов</t>
-  </si>
-  <si>
-    <t>Кировская обл., п. Фаленки, ул. Железнолорожная</t>
-  </si>
-  <si>
-    <t>г. Чебоксары, Ишлейский пр-д, 6 км, грузовой двор станции Чебоксары</t>
-  </si>
-  <si>
-    <t>Владимирская обл., г. Владимир, мкр-н Юрьевец, ул. Станционная</t>
-  </si>
-  <si>
     <t>163000, г. Архангельск, Окружное шоссе, д. 16</t>
   </si>
   <si>
@@ -771,52 +582,241 @@
     <t>Свердловская обл., г. Екатеринбург, ул. Вишневая, 39а</t>
   </si>
   <si>
-    <t>г. Самара, ул. Рыльская, контейнерная площадка ст. Безымянка</t>
-  </si>
-  <si>
     <t>г. Самара, ул. Заводская, 5а</t>
   </si>
   <si>
-    <t>Пензенская обл., г. Кузнецк, ул. Республики, д. 57</t>
-  </si>
-  <si>
-    <t>Республика Татарстан, г. Нижнекамск, ул. Вокзальная, д. 1а</t>
-  </si>
-  <si>
-    <t>Республика Татарстан, г. Нурлат, ул. Гиматдинова, 1А</t>
-  </si>
-  <si>
     <t>г. Пенза, ул. Каракозова, д. 4</t>
   </si>
   <si>
-    <t>Республика Мордовия, г. Рузаевка, Старо-Базарный тупик, д. 19</t>
-  </si>
-  <si>
     <t>г. Самара, ул. Речная, 3а</t>
   </si>
   <si>
-    <t>Республика Мордовия, г. Саранск, пр-кт Ленина, д. 95</t>
-  </si>
-  <si>
-    <t>Республика Башкортостан, г. Стерлитамак, ул. Вокзальная, д. 9</t>
-  </si>
-  <si>
-    <t>Самарская обл., г. Сызрань, ст. Сызрань-2</t>
-  </si>
-  <si>
-    <t>Республика Башкортостан, г. Туймазы, ул. 70 лет Октября, грузовой двор б/н</t>
-  </si>
-  <si>
-    <t>г. Ульяновск, ст. Ульяновск-1, Товарный двор</t>
-  </si>
-  <si>
-    <t>Республика Башкортостан, г. Уфа, ул. Индустриальное шоссе, д. 37а</t>
-  </si>
-  <si>
-    <t>Республика Башкортостан, п. Чишмы, ул. Железнодорожная, б/н</t>
-  </si>
-  <si>
     <t>Заголовок</t>
+  </si>
+  <si>
+    <t>г. Бологое, ул. 1-Линейная, д. 1-а</t>
+  </si>
+  <si>
+    <t xml:space="preserve">г. Боровичи, Привокзальная пл., д. 1 </t>
+  </si>
+  <si>
+    <t>г. Великие Луки, Привокзальная пл., д. 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">г. Выборг, ул. Куйбышева, д. 21 </t>
+  </si>
+  <si>
+    <t>г. Мурманск, Портовый пр, д. 5</t>
+  </si>
+  <si>
+    <t>г. Великий Новгород, ул. Северная, д. 9 А</t>
+  </si>
+  <si>
+    <t>г. Петрозаводск, ул. Шотмана, 27</t>
+  </si>
+  <si>
+    <t>г. Псков, Вокзальная улица, 15Г</t>
+  </si>
+  <si>
+    <t>г. Санкт-Петербург, Глухоозерское шоссе, д. 13</t>
+  </si>
+  <si>
+    <t>г. Санкт-Петербург, ул. Минеральная, д. 25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">г. Санкт-Петербург, Московское шоссе, д. 16 </t>
+  </si>
+  <si>
+    <t>г. Черняховск, ул. Новочерняховск , д. 8</t>
+  </si>
+  <si>
+    <t>Московская обл., дер. Кузяево</t>
+  </si>
+  <si>
+    <t>Московская обл., Воскресенский район</t>
+  </si>
+  <si>
+    <t>Московская обл., Дубна</t>
+  </si>
+  <si>
+    <t>Московская обл., деревня Бекасово</t>
+  </si>
+  <si>
+    <t>Москва, ул. 6 радиальная, д. 15</t>
+  </si>
+  <si>
+    <t>Московская обл., г. Воскресенск</t>
+  </si>
+  <si>
+    <t>г. Коломна, ул. Астахова</t>
+  </si>
+  <si>
+    <t>г. Егорьевск, ул. 50 лет ВЛКСМ</t>
+  </si>
+  <si>
+    <t>г. Кашира, ул. Ильича</t>
+  </si>
+  <si>
+    <t>г. Рязань, пос. Соколовка</t>
+  </si>
+  <si>
+    <t>г. Люберцы, ул. Волковская</t>
+  </si>
+  <si>
+    <t>Московская обл., Истринский район</t>
+  </si>
+  <si>
+    <t>г. Ногинск, ул. Комсомольская, д. 68А</t>
+  </si>
+  <si>
+    <t>г. Орехово-Зуево, ул. Вокзальная</t>
+  </si>
+  <si>
+    <t>г. Подольск, ул. Вокзальная</t>
+  </si>
+  <si>
+    <t>г. Раменское, ул. Михалевича</t>
+  </si>
+  <si>
+    <t>г. Рязань, Товарный двор</t>
+  </si>
+  <si>
+    <t>г. Сергиев Посад, 1-я Рыбная ул., д. 1</t>
+  </si>
+  <si>
+    <t>Московская обл., Ступинский район</t>
+  </si>
+  <si>
+    <t>г. Ступино, ул. Привокзальная</t>
+  </si>
+  <si>
+    <t>г. Щелково, ул. Вокзальная</t>
+  </si>
+  <si>
+    <t>г. Орел, ул. Старо-Привокзальная</t>
+  </si>
+  <si>
+    <t>г. Новомосковск</t>
+  </si>
+  <si>
+    <t>г. Тула, ул. Вяземская, д. 1</t>
+  </si>
+  <si>
+    <t>г. Узловая</t>
+  </si>
+  <si>
+    <t>г. Брянск, ст. Брянск-2-Льговский</t>
+  </si>
+  <si>
+    <t>Смоленская обл., грузовой двор</t>
+  </si>
+  <si>
+    <t>г. Калуга</t>
+  </si>
+  <si>
+    <t>Брянская обл., Клинцовский район</t>
+  </si>
+  <si>
+    <t>Калужская обл., Мещовский район</t>
+  </si>
+  <si>
+    <t>г. Новозыбков</t>
+  </si>
+  <si>
+    <t>Брянская обл., Почепский район</t>
+  </si>
+  <si>
+    <t>Смоленская обл., Рославльский район</t>
+  </si>
+  <si>
+    <t>г. Арзамас, ул. Заклубная, 18</t>
+  </si>
+  <si>
+    <t>г. Казань, ул. Поперечно-Отарская, д. 100</t>
+  </si>
+  <si>
+    <t>г. Вязники, ст. Вязники</t>
+  </si>
+  <si>
+    <t>г. Глазов, ул. Барышникова</t>
+  </si>
+  <si>
+    <t>г. Гусь-Хрустальный, ул. Некрасова, д. 13-а</t>
+  </si>
+  <si>
+    <t>г. Дзержинск, ст. Доскино</t>
+  </si>
+  <si>
+    <t>г. Киров, ул. Московская, 104а</t>
+  </si>
+  <si>
+    <t>г. Котельнич, ул. Деповская, 19</t>
+  </si>
+  <si>
+    <t>г. Красноуфимск, ул. Вокзальная, 18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">г. Кстово, ул. Лесная, 1а </t>
+  </si>
+  <si>
+    <t>г. Казань, ул. Боевая</t>
+  </si>
+  <si>
+    <t>г. Киров, ст. Лянгасово</t>
+  </si>
+  <si>
+    <t>г. Муром, ул. Эксплуатационная, 14а</t>
+  </si>
+  <si>
+    <t>г. Семенов, ст. Семенов</t>
+  </si>
+  <si>
+    <t>г. Урень, ул. Механизаторов</t>
+  </si>
+  <si>
+    <t>п. Фаленки, ул. Железнолорожная</t>
+  </si>
+  <si>
+    <t>г. Чебоксары, Ишлейский пр-д, 6 км</t>
+  </si>
+  <si>
+    <t>г. Владимир, ул. Станционная</t>
+  </si>
+  <si>
+    <t>п. Чишмы, ул. Железнодорожная</t>
+  </si>
+  <si>
+    <t>г. Уфа, ул. Индустриальное шоссе, д. 37а</t>
+  </si>
+  <si>
+    <t>г. Самара, ул. Рыльская</t>
+  </si>
+  <si>
+    <t>г. Кузнецк, ул. Республики, д. 57</t>
+  </si>
+  <si>
+    <t>г. Нижнекамск, ул. Вокзальная, д. 1а</t>
+  </si>
+  <si>
+    <t>г. Нурлат, ул. Гиматдинова, 1А</t>
+  </si>
+  <si>
+    <t>г. Рузаевка, Старо-Базарный тупик, д. 19</t>
+  </si>
+  <si>
+    <t>г. Саранск, пр-кт Ленина, д. 95</t>
+  </si>
+  <si>
+    <t>г. Стерлитамак, ул. Вокзальная, д. 9</t>
+  </si>
+  <si>
+    <t>г. Сызрань, ст. Сызрань-2</t>
+  </si>
+  <si>
+    <t>г. Туймазы, ул. 70 лет Октября</t>
+  </si>
+  <si>
+    <t>г. Ульяновск, ст. Ульяновск-1</t>
   </si>
 </sst>
 </file>
@@ -1159,1345 +1159,1345 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A285"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView tabSelected="1" topLeftCell="A262" workbookViewId="0">
+      <selection activeCell="A285" sqref="A285"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>266</v>
+        <v>191</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>0</v>
+        <v>192</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>1</v>
+        <v>193</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>2</v>
+        <v>194</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>3</v>
+        <v>195</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>4</v>
+        <v>196</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>5</v>
+        <v>197</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>6</v>
+        <v>198</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>7</v>
+        <v>199</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>8</v>
+        <v>200</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>9</v>
+        <v>201</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>12</v>
+        <v>202</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>15</v>
+        <v>203</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>16</v>
+        <v>206</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>17</v>
+        <v>207</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>18</v>
+        <v>204</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>19</v>
+        <v>205</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>20</v>
+        <v>208</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>21</v>
+        <v>209</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>22</v>
+        <v>210</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>24</v>
+        <v>211</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>25</v>
+        <v>212</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>26</v>
+        <v>5</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>27</v>
+        <v>213</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>28</v>
+        <v>214</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>29</v>
+        <v>6</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>30</v>
+        <v>7</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>32</v>
+        <v>215</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>33</v>
+        <v>216</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>34</v>
+        <v>217</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>35</v>
+        <v>218</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>36</v>
+        <v>219</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>37</v>
+        <v>220</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>38</v>
+        <v>221</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>39</v>
+        <v>222</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>40</v>
+        <v>223</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>41</v>
+        <v>224</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>43</v>
+        <v>225</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>45</v>
+        <v>226</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>46</v>
+        <v>227</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>47</v>
+        <v>228</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>48</v>
+        <v>229</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>49</v>
+        <v>230</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>50</v>
+        <v>231</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>51</v>
+        <v>232</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>52</v>
+        <v>233</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>53</v>
+        <v>234</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>54</v>
+        <v>235</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>55</v>
+        <v>236</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>56</v>
+        <v>11</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>57</v>
+        <v>12</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>58</v>
+        <v>237</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>59</v>
+        <v>238</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>60</v>
+        <v>239</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>61</v>
+        <v>240</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>62</v>
+        <v>241</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>63</v>
+        <v>242</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>64</v>
+        <v>13</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>65</v>
+        <v>14</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>66</v>
+        <v>15</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>67</v>
+        <v>243</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>68</v>
+        <v>16</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>69</v>
+        <v>244</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>70</v>
+        <v>245</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>71</v>
+        <v>246</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>72</v>
+        <v>247</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>73</v>
+        <v>248</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>74</v>
+        <v>249</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>75</v>
+        <v>17</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>76</v>
+        <v>250</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>77</v>
+        <v>251</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>78</v>
+        <v>252</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
-        <v>79</v>
+        <v>253</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>80</v>
+        <v>254</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
-        <v>81</v>
+        <v>18</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
-        <v>82</v>
+        <v>19</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
-        <v>83</v>
+        <v>20</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
-        <v>84</v>
+        <v>21</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
-        <v>85</v>
+        <v>22</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
-        <v>86</v>
+        <v>23</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
-        <v>87</v>
+        <v>24</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
-        <v>88</v>
+        <v>25</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
-        <v>89</v>
+        <v>26</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
-        <v>90</v>
+        <v>27</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
-        <v>91</v>
+        <v>28</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
-        <v>92</v>
+        <v>29</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
-        <v>93</v>
+        <v>30</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
-        <v>94</v>
+        <v>31</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
-        <v>95</v>
+        <v>32</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
-        <v>96</v>
+        <v>33</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
-        <v>97</v>
+        <v>34</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
-        <v>98</v>
+        <v>35</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
-        <v>99</v>
+        <v>36</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
-        <v>100</v>
+        <v>37</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
-        <v>101</v>
+        <v>38</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
-        <v>102</v>
+        <v>39</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
-        <v>103</v>
+        <v>40</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
-        <v>104</v>
+        <v>41</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
-        <v>105</v>
+        <v>42</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
-        <v>106</v>
+        <v>43</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
-        <v>107</v>
+        <v>44</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
-        <v>108</v>
+        <v>45</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
-        <v>109</v>
+        <v>46</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
-        <v>110</v>
+        <v>47</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
-        <v>111</v>
+        <v>48</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
-        <v>112</v>
+        <v>49</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
-        <v>113</v>
+        <v>50</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
-        <v>114</v>
+        <v>51</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
-        <v>115</v>
+        <v>52</v>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
-        <v>116</v>
+        <v>53</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
-        <v>117</v>
+        <v>54</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
-        <v>118</v>
+        <v>55</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
-        <v>119</v>
+        <v>56</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
-        <v>120</v>
+        <v>57</v>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
-        <v>121</v>
+        <v>58</v>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
-        <v>122</v>
+        <v>59</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
-        <v>123</v>
+        <v>60</v>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
-        <v>124</v>
+        <v>61</v>
       </c>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
-        <v>125</v>
+        <v>62</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
-        <v>126</v>
+        <v>63</v>
       </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
-        <v>127</v>
+        <v>64</v>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
-        <v>128</v>
+        <v>65</v>
       </c>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
-        <v>129</v>
+        <v>66</v>
       </c>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
-        <v>130</v>
+        <v>67</v>
       </c>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
-        <v>131</v>
+        <v>68</v>
       </c>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
-        <v>132</v>
+        <v>69</v>
       </c>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
-        <v>133</v>
+        <v>70</v>
       </c>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
-        <v>134</v>
+        <v>71</v>
       </c>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
-        <v>135</v>
+        <v>72</v>
       </c>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
-        <v>136</v>
+        <v>73</v>
       </c>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
-        <v>137</v>
+        <v>74</v>
       </c>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
-        <v>138</v>
+        <v>75</v>
       </c>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
-        <v>139</v>
+        <v>76</v>
       </c>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
-        <v>140</v>
+        <v>77</v>
       </c>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
-        <v>141</v>
+        <v>78</v>
       </c>
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
-        <v>142</v>
+        <v>79</v>
       </c>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
-        <v>143</v>
+        <v>80</v>
       </c>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
-        <v>144</v>
+        <v>81</v>
       </c>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
-        <v>145</v>
+        <v>82</v>
       </c>
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
-        <v>146</v>
+        <v>83</v>
       </c>
     </row>
     <row r="160" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
-        <v>147</v>
+        <v>84</v>
       </c>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
-        <v>148</v>
+        <v>85</v>
       </c>
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
-        <v>149</v>
+        <v>86</v>
       </c>
     </row>
     <row r="163" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
-        <v>150</v>
+        <v>87</v>
       </c>
     </row>
     <row r="164" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
-        <v>151</v>
+        <v>88</v>
       </c>
     </row>
     <row r="165" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
-        <v>152</v>
+        <v>89</v>
       </c>
     </row>
     <row r="166" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
-        <v>153</v>
+        <v>90</v>
       </c>
     </row>
     <row r="167" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
-        <v>154</v>
+        <v>91</v>
       </c>
     </row>
     <row r="168" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
-        <v>155</v>
+        <v>92</v>
       </c>
     </row>
     <row r="169" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
-        <v>156</v>
+        <v>93</v>
       </c>
     </row>
     <row r="170" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
-        <v>157</v>
+        <v>94</v>
       </c>
     </row>
     <row r="171" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
-        <v>158</v>
+        <v>95</v>
       </c>
     </row>
     <row r="172" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
-        <v>159</v>
+        <v>96</v>
       </c>
     </row>
     <row r="173" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
-        <v>160</v>
+        <v>97</v>
       </c>
     </row>
     <row r="175" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
-        <v>161</v>
+        <v>98</v>
       </c>
     </row>
     <row r="176" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
-        <v>162</v>
+        <v>99</v>
       </c>
     </row>
     <row r="177" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
-        <v>163</v>
+        <v>100</v>
       </c>
     </row>
     <row r="178" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
-        <v>164</v>
+        <v>101</v>
       </c>
     </row>
     <row r="179" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
-        <v>165</v>
+        <v>102</v>
       </c>
     </row>
     <row r="180" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A180" s="1" t="s">
-        <v>166</v>
+        <v>103</v>
       </c>
     </row>
     <row r="181" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
-        <v>167</v>
+        <v>104</v>
       </c>
     </row>
     <row r="182" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
-        <v>168</v>
+        <v>105</v>
       </c>
     </row>
     <row r="183" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A183" s="1" t="s">
-        <v>169</v>
+        <v>106</v>
       </c>
     </row>
     <row r="184" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A184" s="1" t="s">
-        <v>170</v>
+        <v>107</v>
       </c>
     </row>
     <row r="185" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A185" s="1" t="s">
-        <v>171</v>
+        <v>108</v>
       </c>
     </row>
     <row r="186" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A186" s="1" t="s">
-        <v>172</v>
+        <v>109</v>
       </c>
     </row>
     <row r="187" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A187" s="1" t="s">
-        <v>173</v>
+        <v>110</v>
       </c>
     </row>
     <row r="188" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A188" s="1" t="s">
-        <v>174</v>
+        <v>111</v>
       </c>
     </row>
     <row r="190" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A190" s="1" t="s">
-        <v>175</v>
+        <v>112</v>
       </c>
     </row>
     <row r="191" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A191" s="1" t="s">
-        <v>176</v>
+        <v>113</v>
       </c>
     </row>
     <row r="192" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A192" s="1" t="s">
-        <v>177</v>
+        <v>114</v>
       </c>
     </row>
     <row r="193" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A193" s="1" t="s">
-        <v>178</v>
+        <v>115</v>
       </c>
     </row>
     <row r="194" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A194" s="1" t="s">
-        <v>179</v>
+        <v>116</v>
       </c>
     </row>
     <row r="195" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A195" s="1" t="s">
-        <v>180</v>
+        <v>117</v>
       </c>
     </row>
     <row r="196" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A196" s="1" t="s">
-        <v>181</v>
+        <v>118</v>
       </c>
     </row>
     <row r="197" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A197" s="1" t="s">
-        <v>182</v>
+        <v>119</v>
       </c>
     </row>
     <row r="198" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A198" s="1" t="s">
-        <v>183</v>
+        <v>120</v>
       </c>
     </row>
     <row r="199" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A199" s="1" t="s">
-        <v>184</v>
+        <v>121</v>
       </c>
     </row>
     <row r="200" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A200" s="1" t="s">
-        <v>185</v>
+        <v>122</v>
       </c>
     </row>
     <row r="201" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A201" s="1" t="s">
-        <v>186</v>
+        <v>123</v>
       </c>
     </row>
     <row r="202" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A202" s="1" t="s">
-        <v>187</v>
+        <v>124</v>
       </c>
     </row>
     <row r="203" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A203" s="1" t="s">
-        <v>188</v>
+        <v>125</v>
       </c>
     </row>
     <row r="205" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A205" s="1" t="s">
-        <v>189</v>
+        <v>126</v>
       </c>
     </row>
     <row r="206" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A206" s="1" t="s">
-        <v>190</v>
+        <v>127</v>
       </c>
     </row>
     <row r="207" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A207" s="1" t="s">
-        <v>191</v>
+        <v>128</v>
       </c>
     </row>
     <row r="208" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A208" s="1" t="s">
-        <v>192</v>
+        <v>129</v>
       </c>
     </row>
     <row r="209" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A209" s="1" t="s">
-        <v>193</v>
+        <v>130</v>
       </c>
     </row>
     <row r="210" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A210" s="1" t="s">
-        <v>194</v>
+        <v>131</v>
       </c>
     </row>
     <row r="211" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A211" s="1" t="s">
-        <v>195</v>
+        <v>132</v>
       </c>
     </row>
     <row r="213" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A213" s="1" t="s">
-        <v>196</v>
+        <v>133</v>
       </c>
     </row>
     <row r="214" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A214" s="1" t="s">
-        <v>197</v>
+        <v>134</v>
       </c>
     </row>
     <row r="215" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A215" s="1" t="s">
-        <v>198</v>
+        <v>135</v>
       </c>
     </row>
     <row r="216" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A216" s="1" t="s">
-        <v>199</v>
+        <v>136</v>
       </c>
     </row>
     <row r="217" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A217" s="1" t="s">
-        <v>200</v>
+        <v>137</v>
       </c>
     </row>
     <row r="218" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A218" s="1" t="s">
-        <v>201</v>
+        <v>138</v>
       </c>
     </row>
     <row r="219" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A219" s="1" t="s">
-        <v>202</v>
+        <v>139</v>
       </c>
     </row>
     <row r="220" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A220" s="1" t="s">
-        <v>203</v>
+        <v>140</v>
       </c>
     </row>
     <row r="221" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A221" s="1" t="s">
-        <v>204</v>
+        <v>141</v>
       </c>
     </row>
     <row r="222" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A222" s="1" t="s">
-        <v>205</v>
+        <v>142</v>
       </c>
     </row>
     <row r="223" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A223" s="1" t="s">
-        <v>206</v>
+        <v>143</v>
       </c>
     </row>
     <row r="224" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A224" s="1" t="s">
-        <v>207</v>
+        <v>144</v>
       </c>
     </row>
     <row r="225" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A225" s="1" t="s">
-        <v>208</v>
+        <v>145</v>
       </c>
     </row>
     <row r="226" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A226" s="1" t="s">
-        <v>209</v>
+        <v>146</v>
       </c>
     </row>
     <row r="227" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A227" s="1" t="s">
-        <v>210</v>
+        <v>147</v>
       </c>
     </row>
     <row r="228" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A228" s="1" t="s">
-        <v>211</v>
+        <v>148</v>
       </c>
     </row>
     <row r="229" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A229" s="1" t="s">
-        <v>212</v>
+        <v>149</v>
       </c>
     </row>
     <row r="230" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A230" s="1" t="s">
-        <v>213</v>
+        <v>150</v>
       </c>
     </row>
     <row r="231" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A231" s="1" t="s">
-        <v>214</v>
+        <v>151</v>
       </c>
     </row>
     <row r="232" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A232" s="1" t="s">
-        <v>215</v>
+        <v>152</v>
       </c>
     </row>
     <row r="234" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A234" s="1" t="s">
-        <v>216</v>
+        <v>153</v>
       </c>
     </row>
     <row r="235" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A235" s="1" t="s">
-        <v>217</v>
+        <v>154</v>
       </c>
     </row>
     <row r="236" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A236" s="1" t="s">
-        <v>218</v>
+        <v>155</v>
       </c>
     </row>
     <row r="237" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A237" s="1" t="s">
-        <v>219</v>
+        <v>156</v>
       </c>
     </row>
     <row r="238" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A238" s="1" t="s">
-        <v>220</v>
+        <v>157</v>
       </c>
     </row>
     <row r="239" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A239" s="1" t="s">
-        <v>221</v>
+        <v>158</v>
       </c>
     </row>
     <row r="240" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A240" s="1" t="s">
-        <v>222</v>
+        <v>159</v>
       </c>
     </row>
     <row r="241" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A241" s="1" t="s">
-        <v>223</v>
+        <v>160</v>
       </c>
     </row>
     <row r="242" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A242" s="1" t="s">
-        <v>224</v>
+        <v>161</v>
       </c>
     </row>
     <row r="243" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A243" s="1" t="s">
-        <v>225</v>
+        <v>162</v>
       </c>
     </row>
     <row r="244" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A244" s="1" t="s">
-        <v>226</v>
+        <v>163</v>
       </c>
     </row>
     <row r="245" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A245" s="1" t="s">
-        <v>227</v>
+        <v>164</v>
       </c>
     </row>
     <row r="246" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A246" s="1" t="s">
-        <v>228</v>
+        <v>165</v>
       </c>
     </row>
     <row r="247" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A247" s="1" t="s">
-        <v>229</v>
+        <v>166</v>
       </c>
     </row>
     <row r="248" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A248" s="1" t="s">
-        <v>230</v>
+        <v>167</v>
       </c>
     </row>
     <row r="250" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A250" s="1" t="s">
-        <v>231</v>
+        <v>168</v>
       </c>
     </row>
     <row r="251" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A251" s="1" t="s">
-        <v>232</v>
+        <v>169</v>
       </c>
     </row>
     <row r="252" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A252" s="1" t="s">
-        <v>233</v>
+        <v>170</v>
       </c>
     </row>
     <row r="253" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A253" s="1" t="s">
-        <v>234</v>
+        <v>171</v>
       </c>
     </row>
     <row r="254" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A254" s="1" t="s">
-        <v>235</v>
+        <v>172</v>
       </c>
     </row>
     <row r="255" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A255" s="1" t="s">
-        <v>236</v>
+        <v>173</v>
       </c>
     </row>
     <row r="256" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A256" s="1" t="s">
-        <v>237</v>
+        <v>174</v>
       </c>
     </row>
     <row r="257" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A257" s="1" t="s">
-        <v>238</v>
+        <v>175</v>
       </c>
     </row>
     <row r="258" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A258" s="1" t="s">
-        <v>239</v>
+        <v>176</v>
       </c>
     </row>
     <row r="259" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A259" s="1" t="s">
-        <v>240</v>
+        <v>177</v>
       </c>
     </row>
     <row r="260" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A260" s="1" t="s">
-        <v>241</v>
+        <v>178</v>
       </c>
     </row>
     <row r="261" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A261" s="1" t="s">
-        <v>242</v>
+        <v>179</v>
       </c>
     </row>
     <row r="262" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A262" s="1" t="s">
-        <v>243</v>
+        <v>180</v>
       </c>
     </row>
     <row r="263" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A263" s="1" t="s">
-        <v>244</v>
+        <v>181</v>
       </c>
     </row>
     <row r="264" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A264" s="1" t="s">
-        <v>245</v>
+        <v>182</v>
       </c>
     </row>
     <row r="265" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A265" s="1" t="s">
-        <v>246</v>
+        <v>183</v>
       </c>
     </row>
     <row r="266" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A266" s="1" t="s">
-        <v>247</v>
+        <v>184</v>
       </c>
     </row>
     <row r="267" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A267" s="1" t="s">
-        <v>248</v>
+        <v>185</v>
       </c>
     </row>
     <row r="268" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A268" s="1" t="s">
-        <v>249</v>
+        <v>186</v>
       </c>
     </row>
     <row r="269" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A269" s="1" t="s">
-        <v>250</v>
+        <v>187</v>
       </c>
     </row>
     <row r="271" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A271" s="1" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
     </row>
     <row r="272" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A272" s="1" t="s">
-        <v>252</v>
+        <v>188</v>
       </c>
     </row>
     <row r="273" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A273" s="1" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
     </row>
     <row r="274" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A274" s="1" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
     </row>
     <row r="275" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A275" s="1" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
     </row>
     <row r="276" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A276" s="1" t="s">
-        <v>256</v>
+        <v>189</v>
       </c>
     </row>
     <row r="277" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A277" s="1" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
     </row>
     <row r="278" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A278" s="1" t="s">
-        <v>258</v>
+        <v>190</v>
       </c>
     </row>
     <row r="279" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A279" s="1" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
     </row>
     <row r="280" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A280" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
     </row>
     <row r="281" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A281" s="1" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
     </row>
     <row r="282" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A282" s="1" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
     </row>
     <row r="283" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A283" s="1" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
     </row>
     <row r="284" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A284" s="1" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
     </row>
     <row r="285" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A285" s="1" t="s">
-        <v>265</v>
+        <v>255</v>
       </c>
     </row>
   </sheetData>
